--- a/ex/cicadidae1/areas_distances.xlsx
+++ b/ex/cicadidae1/areas_distances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/PhyBEARS.jl/ex/cicadidae1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF272C3-4EDC-CA42-86A5-5FCA47D6DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B1C64A-42EE-B444-97DE-375CFD143B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="4000" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{B1495486-62EF-6542-B559-8C36A01C5A8C}"/>
+    <workbookView xWindow="3940" yWindow="6520" windowWidth="27240" windowHeight="16440" xr2:uid="{B1495486-62EF-6542-B559-8C36A01C5A8C}"/>
   </bookViews>
   <sheets>
     <sheet name="areanames" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>AU</t>
   </si>
   <si>
-    <t>North America</t>
-  </si>
-  <si>
     <t>single-letter</t>
   </si>
   <si>
@@ -93,33 +90,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>Middle-east?</t>
-  </si>
-  <si>
-    <t>Central America</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>West Eurasia</t>
-  </si>
-  <si>
-    <t>East Eurasia</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>South East Asia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>(for "Oz")</t>
   </si>
   <si>
@@ -157,19 +127,54 @@
   </si>
   <si>
     <t>Absolute distances</t>
+  </si>
+  <si>
+    <t>North America (NA) - includes Mexico except southernmost states and Yucatan</t>
+  </si>
+  <si>
+    <t>Central America and Caribbean (CA) - includes southernmost Mexican states and Yucatan</t>
+  </si>
+  <si>
+    <t>South America (SA) - everything south of Panama</t>
+  </si>
+  <si>
+    <t>Africa (AF) - includes Arabian peninsula</t>
+  </si>
+  <si>
+    <t>Madagascar and Indian Ocean islands (MA) - basically Madagascar, Mauritius, and Reunion</t>
+  </si>
+  <si>
+    <t>West Eurasia (WE) - Eurasia west of Urals and Caspian Sea</t>
+  </si>
+  <si>
+    <t>East Eurasia (EE) - Eurasia east of Urals and Caspian Sea, north of southern China</t>
+  </si>
+  <si>
+    <t>India (IN) - Indian subcontinent, includes Pakistan, Nepal, Bangladesh</t>
+  </si>
+  <si>
+    <t>Southeast Asia (SE) - basically Indomalayan biogeographic realm minus India, west of Wallace's Line</t>
+  </si>
+  <si>
+    <t>Australasia (AU) - Australia, New Guinea, Wallacea, New Zealand (includes some Pacific islands close by, like Solomon Islands, Vanuatu, New Caledonia)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,8 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,13 +536,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D5EEF5-B859-E148-A05C-F0BB181C21FF}">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="134.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
@@ -547,128 +553,128 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>21</v>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>18</v>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>22</v>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>23</v>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>24</v>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>25</v>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>26</v>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -676,7 +682,7 @@
         <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA58B56B-4799-9D47-937D-967480912096}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3:U12"/>
     </sheetView>
   </sheetViews>
@@ -696,10 +702,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1424,7 +1430,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J15">
         <f>MAX(A3:J12)</f>
